--- a/results/mp/logistic/corona/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,33 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>die</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -88,118 +91,121 @@
     <t>19</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>stay</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +574,7 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6578947368421053</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5882352941176471</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8537859007832899</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L6">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5833333333333334</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5405405405405406</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L8">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.455026455026455</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4515503875968992</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C10">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.80625</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3389830508474576</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7816901408450704</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3333333333333333</v>
+        <v>0.439922480620155</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2684563758389262</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1468253968253968</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7735849056603774</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.08579088471849866</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K15">
-        <v>0.765625</v>
+        <v>0.7734375</v>
       </c>
       <c r="L15">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.07666666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,37 +1332,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01842275371687136</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C17">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>3037</v>
+        <v>279</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L17">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,37 +1382,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01228733459357278</v>
+        <v>0.01685575364667747</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E18">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="F18">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2090</v>
+        <v>3033</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,37 +1432,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006984126984126984</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E19">
-        <v>0.7</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F19">
-        <v>0.3</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3128</v>
+        <v>2088</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1482,13 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7441860465116279</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1494,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1502,13 +1508,13 @@
         <v>44</v>
       </c>
       <c r="K21">
-        <v>0.7407407407407407</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1520,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1528,13 +1534,13 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>0.7272727272727273</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1554,13 +1560,13 @@
         <v>46</v>
       </c>
       <c r="K23">
-        <v>0.72</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1572,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1580,13 +1586,13 @@
         <v>47</v>
       </c>
       <c r="K24">
-        <v>0.7021276595744681</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1598,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1606,13 +1612,13 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6571428571428571</v>
+        <v>0.65</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1624,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1632,13 +1638,13 @@
         <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6401673640167364</v>
+        <v>0.64</v>
       </c>
       <c r="L26">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1650,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1658,13 +1664,13 @@
         <v>50</v>
       </c>
       <c r="K27">
-        <v>0.625</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1676,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1684,13 +1690,13 @@
         <v>51</v>
       </c>
       <c r="K28">
-        <v>0.6235294117647059</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L28">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="M28">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1702,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1710,25 +1716,25 @@
         <v>52</v>
       </c>
       <c r="K29">
-        <v>0.6170212765957447</v>
+        <v>0.592436974789916</v>
       </c>
       <c r="L29">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1736,13 +1742,13 @@
         <v>53</v>
       </c>
       <c r="K30">
-        <v>0.6153846153846154</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1754,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1762,25 +1768,25 @@
         <v>54</v>
       </c>
       <c r="K31">
-        <v>0.5884353741496599</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1788,25 +1794,25 @@
         <v>55</v>
       </c>
       <c r="K32">
-        <v>0.5571428571428572</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32">
+        <v>50</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>39</v>
-      </c>
-      <c r="M32">
-        <v>39</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1814,13 +1820,13 @@
         <v>56</v>
       </c>
       <c r="K33">
-        <v>0.5393258426966292</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L33">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M33">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1832,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1840,13 +1846,13 @@
         <v>57</v>
       </c>
       <c r="K34">
-        <v>0.5294117647058824</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1858,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1866,25 +1872,25 @@
         <v>58</v>
       </c>
       <c r="K35">
-        <v>0.4366197183098591</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1892,13 +1898,13 @@
         <v>59</v>
       </c>
       <c r="K36">
-        <v>0.4222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1910,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1918,13 +1924,13 @@
         <v>60</v>
       </c>
       <c r="K37">
-        <v>0.3717948717948718</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1936,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1944,13 +1950,13 @@
         <v>61</v>
       </c>
       <c r="K38">
-        <v>0.08116883116883117</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1962,59 +1968,111 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>283</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.0160427807486631</v>
+        <v>0.04578313253012048</v>
       </c>
       <c r="L39">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="N39">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0.3</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3128</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40">
+        <v>0.02136349355953503</v>
+      </c>
+      <c r="L40">
+        <v>68</v>
+      </c>
+      <c r="M40">
+        <v>86</v>
+      </c>
+      <c r="N40">
+        <v>0.79</v>
+      </c>
+      <c r="O40">
+        <v>0.21</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41">
+        <v>0.0146295422369042</v>
+      </c>
+      <c r="L41">
+        <v>31</v>
+      </c>
+      <c r="M41">
+        <v>55</v>
+      </c>
+      <c r="N41">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O41">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K40">
-        <v>0.01275389702409069</v>
-      </c>
-      <c r="L40">
-        <v>27</v>
-      </c>
-      <c r="M40">
-        <v>53</v>
-      </c>
-      <c r="N40">
-        <v>0.51</v>
-      </c>
-      <c r="O40">
-        <v>0.49</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>2090</v>
+      <c r="K42">
+        <v>0.007201309328968904</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <v>74</v>
+      </c>
+      <c r="N42">
+        <v>0.3</v>
+      </c>
+      <c r="O42">
+        <v>0.7</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3033</v>
       </c>
     </row>
   </sheetData>
